--- a/Mariadb/Gwiazdy.xlsx
+++ b/Mariadb/Gwiazdy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="91">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -52,12 +52,12 @@
     <t xml:space="preserve">Brightness</t>
   </si>
   <si>
+    <t xml:space="preserve">Mass</t>
+  </si>
+  <si>
     <t xml:space="preserve">StarType</t>
   </si>
   <si>
-    <t xml:space="preserve">Mass</t>
-  </si>
-  <si>
     <t xml:space="preserve">GreekSymbol</t>
   </si>
   <si>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Gamma Hydrae</t>
   </si>
   <si>
-    <t xml:space="preserve">żółty olbrzym</t>
+    <t xml:space="preserve">Żółty Olbrzym</t>
   </si>
   <si>
     <t xml:space="preserve">γ</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Psi Hydrae</t>
   </si>
   <si>
-    <t xml:space="preserve">olbrzym</t>
+    <t xml:space="preserve">Olbrzym</t>
   </si>
   <si>
     <t xml:space="preserve">ψ</t>
@@ -112,9 +112,6 @@
     <t xml:space="preserve">Lambda Hydrae</t>
   </si>
   <si>
-    <t xml:space="preserve">pomarańczowy olbrzym</t>
-  </si>
-  <si>
     <t xml:space="preserve">λ</t>
   </si>
   <si>
@@ -127,7 +124,7 @@
     <t xml:space="preserve">Tau 1 Hydrae</t>
   </si>
   <si>
-    <t xml:space="preserve">nieokreślona</t>
+    <t xml:space="preserve">Nieznana</t>
   </si>
   <si>
     <t xml:space="preserve">τ</t>
@@ -136,7 +133,7 @@
     <t xml:space="preserve">Tau 2 Hydrae</t>
   </si>
   <si>
-    <t xml:space="preserve">biały karzeł</t>
+    <t xml:space="preserve">Biały Karzeł</t>
   </si>
   <si>
     <t xml:space="preserve">Theta Hydrae</t>
@@ -190,7 +187,112 @@
     <t xml:space="preserve">Upsilon 2 Hydrae</t>
   </si>
   <si>
-    <t xml:space="preserve">subolbrzym</t>
+    <t xml:space="preserve">Podolbrzym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109 Virgins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mu Virginis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ι </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tau Virginis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czerwony Karzeł</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ζ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">κ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">α </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porrima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwiazda Binarna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">γ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta Virginis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">δ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vindemiatrix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ε </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaniah  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">η </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nu Virginis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ν </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubhe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wielka Niedźwiedzica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merak  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">β </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phecda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karzeł</t>
+  </si>
+  <si>
+    <t xml:space="preserve">δ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alioth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mizar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkaid</t>
   </si>
 </sst>
 </file>
@@ -200,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -248,6 +350,12 @@
       <charset val="238"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
@@ -257,6 +365,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -332,11 +448,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -369,6 +485,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -381,11 +501,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -416,7 +544,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF6A8759"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -467,13 +595,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="18.29"/>
@@ -481,15 +609,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -533,7 +661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>14</v>
       </c>
@@ -564,11 +692,11 @@
       <c r="J2" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>3.1</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>16</v>
@@ -577,7 +705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>18</v>
       </c>
@@ -608,11 +736,8 @@
       <c r="J3" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>20</v>
@@ -621,7 +746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>21</v>
       </c>
@@ -652,11 +777,11 @@
       <c r="J4" s="0" t="n">
         <v>257</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="0" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>3.36</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>22</v>
@@ -665,7 +790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>23</v>
       </c>
@@ -696,11 +821,11 @@
       <c r="J5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="0" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>3.31</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>24</v>
@@ -709,7 +834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>25</v>
       </c>
@@ -740,11 +865,11 @@
       <c r="J6" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>26</v>
@@ -753,7 +878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>27</v>
       </c>
@@ -784,11 +909,8 @@
       <c r="J7" s="0" t="n">
         <v>332</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="L7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>28</v>
@@ -797,7 +919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>29</v>
       </c>
@@ -828,22 +950,22 @@
       <c r="J8" s="0" t="n">
         <v>39.8</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>9</v>
@@ -872,22 +994,22 @@
       <c r="J9" s="0" t="n">
         <v>780</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="0" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <v>3.03</v>
-      </c>
       <c r="M9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>9</v>
@@ -916,22 +1038,22 @@
       <c r="J10" s="0" t="n">
         <v>3.369</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>9</v>
@@ -960,22 +1082,19 @@
       <c r="J11" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>36</v>
+      <c r="L11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>9</v>
@@ -1004,22 +1123,22 @@
       <c r="J12" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>2.52</v>
       </c>
+      <c r="L12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>8</v>
@@ -1048,22 +1167,22 @@
       <c r="J13" s="0" t="n">
         <v>138</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="M13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>8</v>
@@ -1083,25 +1202,22 @@
       <c r="G14" s="3" t="n">
         <v>16.4</v>
       </c>
-      <c r="I14" s="9" t="n">
+      <c r="I14" s="10" t="n">
         <v>337</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>44</v>
+      <c r="L14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>8</v>
@@ -1130,22 +1246,22 @@
       <c r="J15" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="0" t="n">
-        <v>2.5</v>
-      </c>
       <c r="M15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>8</v>
@@ -1168,39 +1284,39 @@
       <c r="I16" s="0" t="n">
         <v>590</v>
       </c>
-      <c r="K16" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="L16" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="M16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="12" t="n">
         <v>38</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="12" t="n">
         <v>45.44</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="12" t="n">
         <v>29.17</v>
       </c>
       <c r="H17" s="0" t="n">
@@ -1212,39 +1328,39 @@
       <c r="J17" s="0" t="n">
         <v>295</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="0" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="0" t="n">
-        <v>3.07</v>
-      </c>
       <c r="M17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B18" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="12" t="n">
         <v>37</v>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D18" s="12" t="n">
         <v>39.36</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E18" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="12" t="n">
         <v>42</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="12" t="n">
         <v>13.61</v>
       </c>
       <c r="H18" s="0" t="n">
@@ -1256,14 +1372,14 @@
       <c r="J18" s="0" t="n">
         <v>42.7</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>2.88</v>
       </c>
+      <c r="L18" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="M18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>17</v>
@@ -1271,7 +1387,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>9</v>
@@ -1300,14 +1416,14 @@
       <c r="J19" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="0" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="0" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>54</v>
+      <c r="M19" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>17</v>
@@ -1315,7 +1431,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>10</v>
@@ -1344,23 +1460,849 @@
       <c r="J20" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="K20" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>3.29</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>54</v>
+      <c r="L20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>14.925</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>38.79</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>41.59</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>74.1</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>53.74</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>-4.38</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>57.74</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>50.89</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>-18.14</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>468</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>54.35</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>51.55</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>45.74</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>50.19</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>631</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>43.67</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>165.1</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>56.73</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>-12</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>49.84</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>41.13</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>65.255</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>25.56</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>57.41</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>35.36</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>-9.3</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>82.6</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>55.54</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>-6.31</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>47.76</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>-10.9</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>594</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M10" r:id="rId1" display="τ"/>
     <hyperlink ref="M11" r:id="rId2" display="τ"/>
+    <hyperlink ref="M23" r:id="rId3" display="ι"/>
+    <hyperlink ref="M24" r:id="rId4" display="τ"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
